--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_10_30.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_10_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2364378.642641667</v>
+        <v>2362002.015694302</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -662,7 +662,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>337.9278438871555</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>56.91750123718731</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,16 +817,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>18.20224829023952</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>202.244341444515</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.93630494999904</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>160.7679129414095</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1060,16 +1060,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>3.361037091619462</v>
+        <v>122.1528448013255</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,22 +1133,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>69.52905770121613</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>69.74721243205258</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>93.99930146557026</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1303,13 +1303,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>202.8875948839318</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,7 +1354,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1424,7 +1424,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>45.66054613217515</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1661,7 +1661,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>28.75188085812005</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>103.8784673763403</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>181.3074675142866</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2245,16 +2245,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699795</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016463</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,16 +2479,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>38.95525409458224</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>99.97427419833861</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>19.86507844888251</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,22 +2947,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>213.3849150459361</v>
       </c>
     </row>
     <row r="32">
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>73.93222849083736</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,19 +3430,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428212</v>
+        <v>20.88994825141581</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3569,7 +3569,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656053</v>
       </c>
     </row>
     <row r="39">
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3907,7 +3907,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3952,13 +3952,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>83.87284639171752</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4135,22 +4135,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>103.8784673763403</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1126.761759316041</v>
+        <v>1213.292347699871</v>
       </c>
       <c r="C2" t="n">
-        <v>757.7992423756293</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D2" t="n">
-        <v>399.5335437688788</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>399.5335437688788</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>392.5880430196754</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4346,7 +4346,7 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
         <v>2542.25058172385</v>
@@ -4358,22 +4358,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2184.059060190806</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1852.996172847235</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1500.227517577121</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X2" t="n">
-        <v>1126.761759316041</v>
+        <v>1270.784773191979</v>
       </c>
       <c r="Y2" t="n">
-        <v>1126.761759316041</v>
+        <v>1213.292347699871</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4383,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>590.2049751143497</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>884.9085321458215</v>
+        <v>801.9449557744476</v>
       </c>
       <c r="M3" t="n">
-        <v>1248.170551105042</v>
+        <v>1165.206974733668</v>
       </c>
       <c r="N3" t="n">
-        <v>1635.455679701987</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878149</v>
+        <v>1884.562538506775</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710446</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4446,10 +4446,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>833.0891146802707</v>
+        <v>473.0014915127243</v>
       </c>
       <c r="C4" t="n">
-        <v>664.1529317523638</v>
+        <v>473.0014915127243</v>
       </c>
       <c r="D4" t="n">
-        <v>514.036292340028</v>
+        <v>473.0014915127243</v>
       </c>
       <c r="E4" t="n">
-        <v>366.1231987576349</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="F4" t="n">
-        <v>219.2332512597245</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1618.060010690417</v>
       </c>
       <c r="S4" t="n">
-        <v>1439.817372234359</v>
+        <v>1421.431262850278</v>
       </c>
       <c r="T4" t="n">
-        <v>1439.817372234359</v>
+        <v>1198.452782045013</v>
       </c>
       <c r="U4" t="n">
-        <v>1439.817372234359</v>
+        <v>909.3344445488509</v>
       </c>
       <c r="V4" t="n">
-        <v>1439.817372234359</v>
+        <v>654.6499563429641</v>
       </c>
       <c r="W4" t="n">
-        <v>1439.817372234359</v>
+        <v>654.6499563429641</v>
       </c>
       <c r="X4" t="n">
-        <v>1235.53015865404</v>
+        <v>654.6499563429641</v>
       </c>
       <c r="Y4" t="n">
-        <v>1014.73757951051</v>
+        <v>654.6499563429641</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>864.8611267254491</v>
+        <v>1217.950988797912</v>
       </c>
       <c r="C5" t="n">
-        <v>495.8986097850374</v>
+        <v>1217.950988797912</v>
       </c>
       <c r="D5" t="n">
-        <v>137.6329111782869</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E5" t="n">
-        <v>137.6329111782869</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F5" t="n">
-        <v>130.6874104290835</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816093</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872924</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400156</v>
+        <v>2275.248289672677</v>
       </c>
       <c r="U5" t="n">
-        <v>2308.758267664336</v>
+        <v>2275.248289672677</v>
       </c>
       <c r="V5" t="n">
-        <v>1977.695380320765</v>
+        <v>1944.185402329106</v>
       </c>
       <c r="W5" t="n">
-        <v>1624.926725050651</v>
+        <v>1591.416747058992</v>
       </c>
       <c r="X5" t="n">
-        <v>1251.460966789571</v>
+        <v>1217.950988797912</v>
       </c>
       <c r="Y5" t="n">
-        <v>1251.460966789571</v>
+        <v>1217.950988797912</v>
       </c>
     </row>
     <row r="6">
@@ -4620,46 +4620,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L6" t="n">
-        <v>801.9449557744472</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M6" t="n">
-        <v>1165.206974733667</v>
+        <v>1227.201367341572</v>
       </c>
       <c r="N6" t="n">
-        <v>1552.492103330613</v>
+        <v>1614.486495938517</v>
       </c>
       <c r="O6" t="n">
-        <v>1884.562538506774</v>
+        <v>1946.556931114679</v>
       </c>
       <c r="P6" t="n">
         <v>2447.023413292609</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>831.7113734044287</v>
+        <v>388.1694341876314</v>
       </c>
       <c r="C7" t="n">
-        <v>662.7751904765219</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="D7" t="n">
-        <v>662.7751904765219</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="E7" t="n">
-        <v>514.8620968941287</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F7" t="n">
-        <v>367.9721493962184</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4750,25 +4750,25 @@
         <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1530.467726628848</v>
+        <v>1410.476001669549</v>
       </c>
       <c r="T7" t="n">
-        <v>1530.467726628848</v>
+        <v>1187.497520864284</v>
       </c>
       <c r="U7" t="n">
-        <v>1241.349389132686</v>
+        <v>898.3791833681221</v>
       </c>
       <c r="V7" t="n">
-        <v>1241.349389132686</v>
+        <v>898.3791833681221</v>
       </c>
       <c r="W7" t="n">
-        <v>1241.349389132686</v>
+        <v>608.9620133311615</v>
       </c>
       <c r="X7" t="n">
-        <v>1013.359838234668</v>
+        <v>608.9620133311615</v>
       </c>
       <c r="Y7" t="n">
-        <v>1013.359838234668</v>
+        <v>388.1694341876314</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1287.435190625613</v>
+        <v>848.1875530107172</v>
       </c>
       <c r="C8" t="n">
-        <v>918.472673685201</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="D8" t="n">
-        <v>918.472673685201</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="E8" t="n">
-        <v>532.6844210869567</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="F8" t="n">
-        <v>121.6985162973492</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800312</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H8" t="n">
         <v>51.24678656800312</v>
@@ -4805,10 +4805,10 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816083</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4820,7 +4820,7 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
         <v>2542.250581723851</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U8" t="n">
-        <v>2437.640120926626</v>
+        <v>2308.758267664336</v>
       </c>
       <c r="V8" t="n">
-        <v>2437.640120926626</v>
+        <v>1977.695380320765</v>
       </c>
       <c r="W8" t="n">
-        <v>2437.640120926626</v>
+        <v>1624.926725050651</v>
       </c>
       <c r="X8" t="n">
-        <v>2064.174362665546</v>
+        <v>1624.926725050651</v>
       </c>
       <c r="Y8" t="n">
-        <v>1674.035030689734</v>
+        <v>1234.787393074839</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
         <v>51.24678656800312</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735141</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L9" t="n">
-        <v>854.8429682049857</v>
+        <v>932.4978103101</v>
       </c>
       <c r="M9" t="n">
-        <v>1218.104987164206</v>
+        <v>1295.75982926932</v>
       </c>
       <c r="N9" t="n">
-        <v>1605.390115761151</v>
+        <v>1683.044957866265</v>
       </c>
       <c r="O9" t="n">
-        <v>1937.460550937313</v>
+        <v>2015.115393042427</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4923,7 +4923,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>370.2996089082458</v>
+        <v>475.205037342667</v>
       </c>
       <c r="C10" t="n">
-        <v>201.3634259803388</v>
+        <v>475.205037342667</v>
       </c>
       <c r="D10" t="n">
-        <v>51.24678656800312</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="E10" t="n">
-        <v>51.24678656800312</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800312</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800312</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800312</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
         <v>51.24678656800312</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
-        <v>1431.509155545273</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1142.390818049111</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="V10" t="n">
-        <v>887.7063298432238</v>
+        <v>859.5709967387894</v>
       </c>
       <c r="W10" t="n">
-        <v>598.2891598062631</v>
+        <v>570.1538267018288</v>
       </c>
       <c r="X10" t="n">
-        <v>370.2996089082458</v>
+        <v>570.1538267018288</v>
       </c>
       <c r="Y10" t="n">
-        <v>370.2996089082458</v>
+        <v>570.1538267018288</v>
       </c>
     </row>
     <row r="11">
@@ -5021,13 +5021,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,22 +5036,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5118,28 +5118,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277341</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277341</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5206,43 +5206,43 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R13" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S13" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T13" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="14">
@@ -5258,13 +5258,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,13 +5273,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5291,7 +5291,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5352,28 +5352,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>251.562654109227</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N15" t="n">
-        <v>1963.765362972544</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>1963.765362972544</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2387.388512467612</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5413,22 +5413,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429803</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,28 +5510,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5546,19 +5546,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>869.6905094135296</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>700.7543264856228</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D19" t="n">
-        <v>550.637687073287</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2044.222762528164</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1789.538274322277</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1500.121104285317</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1272.131553387299</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1051.338974243769</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5732,43 +5732,43 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400694</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121625</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121625</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>197.0043242297694</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>197.0043242297694</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703091</v>
       </c>
     </row>
     <row r="23">
@@ -5966,31 +5966,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192601</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111727</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6002,25 +6002,25 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6063,25 +6063,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1104.935454102179</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,16 +6236,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D28" t="n">
-        <v>194.8007783998291</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>194.8007783998291</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>194.8007783998291</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>194.8007783998291</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6382,52 +6382,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="29">
@@ -6437,46 +6437,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6537,19 +6537,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
         <v>1307.627092998424</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>700.7543264856228</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,10 +6710,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270447</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6923,22 +6923,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6953,13 +6953,13 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
         <v>4606.285157492578</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270447</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7166,16 +7166,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,19 +7184,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
         <v>4606.285157492578</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,28 +7245,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797189</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P39" t="n">
         <v>2283.159972732779</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7397,16 +7397,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,13 +7482,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
         <v>427.7414352191925</v>
@@ -7500,16 +7500,16 @@
         <v>1520.445529061503</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>718.5507239167111</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F43" t="n">
         <v>402.7245934908939</v>
@@ -7561,10 +7561,10 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7600,19 +7600,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1348.981318788498</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1120.991767890481</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>900.1991887469509</v>
       </c>
     </row>
     <row r="44">
@@ -7637,10 +7637,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
@@ -7649,7 +7649,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7728,22 +7728,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.04349261611</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7783,19 +7783,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>168.7434581780643</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>211.0329012241563</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8073,13 +8073,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8298,10 +8298,10 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>211.0329012241558</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>273.6534998179983</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8310,13 +8310,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>255.8421700460941</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>342.9044714621887</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>54.95314511566545</v>
+        <v>186.5911984019039</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8696,7 +8696,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9176,7 +9176,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9419,7 +9419,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>-5.794924217776389e-13</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10364,10 +10364,10 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>-1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -11075,13 +11075,13 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>99.7605018907561</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>138.4949402405078</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23890,22 +23890,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>41.54258064659095</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>104.8770068749575</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>63.3683537222893</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>186.7544012944549</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>40.32043864788525</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>205.8445769401546</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>5.19973830615865</v>
       </c>
     </row>
     <row r="32">
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>105.8997516910999</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194174</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>126.7126101431586</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25795,7 +25795,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25840,13 +25840,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>202.6501519448735</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26023,22 +26023,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>63.36835372228754</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>813246.0393401296</v>
+        <v>813246.0393401295</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>813246.0393401296</v>
+        <v>813246.0393401295</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>813246.0393401295</v>
+        <v>813246.0393401296</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>813246.0393401294</v>
+        <v>813246.0393401295</v>
       </c>
     </row>
     <row r="13">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982127</v>
+        <v>615781.3273982126</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982127</v>
+        <v>615781.3273982129</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982129</v>
       </c>
       <c r="E2" t="n">
         <v>605359.9497675044</v>
       </c>
       <c r="F2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="G2" t="n">
         <v>605359.9497675044</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="I2" t="n">
+        <v>605359.9497675044</v>
+      </c>
+      <c r="J2" t="n">
         <v>605359.949767504</v>
       </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
         <v>605359.9497675044</v>
       </c>
-      <c r="I2" t="n">
-        <v>605359.9497675041</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>605359.9497675044</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>605359.9497675042</v>
-      </c>
-      <c r="L2" t="n">
-        <v>605359.9497675041</v>
-      </c>
-      <c r="M2" t="n">
-        <v>605359.949767504</v>
       </c>
       <c r="N2" t="n">
         <v>605359.9497675042</v>
       </c>
       <c r="O2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="P2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.949767504</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245458</v>
+        <v>507485.4416245457</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>131909.7268316249</v>
+        <v>131909.726831625</v>
       </c>
       <c r="C4" t="n">
         <v>131909.7268316249</v>
       </c>
       <c r="D4" t="n">
-        <v>131909.726831625</v>
+        <v>131909.7268316249</v>
       </c>
       <c r="E4" t="n">
+        <v>6897.424496707369</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6897.424496707383</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6897.424496707377</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6897.42449670736</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6897.424496707368</v>
+      </c>
+      <c r="J4" t="n">
         <v>6897.424496707359</v>
       </c>
-      <c r="F4" t="n">
-        <v>6897.424496707381</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="K4" t="n">
+        <v>6897.42449670737</v>
+      </c>
+      <c r="L4" t="n">
+        <v>6897.424496707361</v>
+      </c>
+      <c r="M4" t="n">
         <v>6897.42449670736</v>
       </c>
-      <c r="H4" t="n">
-        <v>6897.424496707341</v>
-      </c>
-      <c r="I4" t="n">
-        <v>6897.424496707361</v>
-      </c>
-      <c r="J4" t="n">
-        <v>6897.42449670735</v>
-      </c>
-      <c r="K4" t="n">
-        <v>6897.424496707361</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6897.424496707349</v>
-      </c>
-      <c r="M4" t="n">
-        <v>6897.424496707319</v>
-      </c>
       <c r="N4" t="n">
-        <v>6897.424496707319</v>
+        <v>6897.424496707388</v>
       </c>
       <c r="O4" t="n">
-        <v>6897.424496707368</v>
+        <v>6897.424496707369</v>
       </c>
       <c r="P4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>92937.77243984472</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-723817.9554491767</v>
+        <v>-723817.9554491765</v>
       </c>
       <c r="C6" t="n">
-        <v>390933.8281267431</v>
+        <v>390933.828126743</v>
       </c>
       <c r="D6" t="n">
-        <v>390933.8281267428</v>
+        <v>390933.8281267432</v>
       </c>
       <c r="E6" t="n">
-        <v>-10145.44617765596</v>
+        <v>-10180.18410309155</v>
       </c>
       <c r="F6" t="n">
-        <v>497339.9954468898</v>
+        <v>497305.2575214539</v>
       </c>
       <c r="G6" t="n">
-        <v>497339.9954468895</v>
+        <v>497305.2575214541</v>
       </c>
       <c r="H6" t="n">
-        <v>497339.9954468897</v>
+        <v>497305.257521454</v>
       </c>
       <c r="I6" t="n">
-        <v>497339.9954468896</v>
+        <v>497305.2575214541</v>
       </c>
       <c r="J6" t="n">
-        <v>329734.8176369073</v>
+        <v>329700.0797114713</v>
       </c>
       <c r="K6" t="n">
-        <v>497339.9954468897</v>
+        <v>497305.2575214541</v>
       </c>
       <c r="L6" t="n">
-        <v>497339.9954468896</v>
+        <v>497305.2575214541</v>
       </c>
       <c r="M6" t="n">
-        <v>364732.7017179629</v>
+        <v>364697.9637925274</v>
       </c>
       <c r="N6" t="n">
-        <v>497339.9954468898</v>
+        <v>497305.257521454</v>
       </c>
       <c r="O6" t="n">
-        <v>497339.99544689</v>
+        <v>497305.257521454</v>
       </c>
       <c r="P6" t="n">
-        <v>497339.9954468896</v>
+        <v>497305.2575214538</v>
       </c>
     </row>
   </sheetData>
@@ -26719,7 +26719,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>934.0648921175391</v>
+      </c>
+      <c r="C3" t="n">
         <v>934.0648921175393</v>
       </c>
-      <c r="C3" t="n">
-        <v>934.0648921175392</v>
-      </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,7 +26790,7 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
         <v>640.584832100039</v>
@@ -26820,13 +26820,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>433.9106082241344</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,7 +27382,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>73.61985888579852</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>329.3204374188663</v>
       </c>
     </row>
     <row r="3">
@@ -27537,25 +27537,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>83.35532412933411</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>23.46531394452219</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>398.6113978229549</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>45.89027203882424</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,16 +27780,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27822,10 +27822,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>191.301423270118</v>
+        <v>72.50961556041193</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>295.7438340697914</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>341.8004903409014</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>85.83267871636704</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28023,13 +28023,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>17.86110111328014</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,7 +28074,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28278,7 +28278,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29007,7 +29007,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>-4.137378184557301e-13</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30289,7 +30289,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>6.429578708524912e-13</v>
       </c>
     </row>
     <row r="39">
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
         <v>38.45624955336179</v>
@@ -31291,16 +31291,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
         <v>539.9786897190645</v>
@@ -31312,7 +31312,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
@@ -31361,7 +31361,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31373,16 +31373,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
         <v>256.4624964168761</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31467,7 +31467,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
@@ -31476,7 +31476,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,34 +31607,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,10 +31838,10 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31853,7 +31853,7 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>370.9642309107746</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -31862,7 +31862,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,13 +32072,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>295.3955842839429</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32087,16 +32087,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>307.3280120589134</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32312,16 +32312,16 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>211.7351844430274</v>
       </c>
       <c r="M18" t="n">
-        <v>270.9486956727256</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32333,10 +32333,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>181.9330708814852</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,34 +32777,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>506.5665344352332</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>734.267838362266</v>
+        <v>395.1848490935921</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>344.2757660550399</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33655,34 +33655,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.646344017567</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>232.1537035940586</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33892,34 +33892,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>404.0195168876591</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34220,19 +34220,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>551.7051287319853</v>
+        <v>485.1127032082914</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34448,7 +34448,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34457,16 +34457,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>718.5832682008314</v>
       </c>
       <c r="O45" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>355.3309544215491</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>508.7132618620064</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,19 +34936,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
         <v>308.745693963795</v>
@@ -34957,7 +34957,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>508.7132618620059</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634695</v>
+        <v>505.5216991696265</v>
       </c>
       <c r="Q6" t="n">
         <v>116.4807223308546</v>
@@ -35091,13 +35091,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
@@ -35106,13 +35106,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>640.584832100039</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>304.6326742391977</v>
+        <v>436.2707275254362</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35416,7 +35416,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35501,7 +35501,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>228.3679864663302</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35510,7 +35510,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35574,7 +35574,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010434</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
@@ -35668,7 +35668,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>157.5541453095838</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35735,16 +35735,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>167.3462379728918</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35896,7 +35896,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
@@ -35960,16 +35960,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>73.18080466315317</v>
       </c>
       <c r="M18" t="n">
-        <v>128.8146617507074</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35981,10 +35981,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>44.09163190712619</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,28 +36431,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>364.4325005132149</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402477</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>90.01966967204032</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>265.4651371077849</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37795,13 +37795,13 @@
         <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37868,19 +37868,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>409.1088842875408</v>
+        <v>342.516458763847</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38105,16 +38105,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>587.2415561174981</v>
       </c>
       <c r="O45" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
